--- a/financial_models/opportunities/6181.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/6181.HK_Valuation_v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DC8526-7796-4573-8530-10EDF64E5403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{855135C8-30F6-479A-89D8-A0C26CCAD474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3560,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4829,7 +4829,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>203.8</v>
+        <v>196.1</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>34313.133460000005</v>
+        <v>33016.709869999999</v>
       </c>
       <c r="H5" s="272"/>
       <c r="I5" s="38"/>
@@ -4972,7 +4972,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0734576781590779</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>1.3006679877262365E-2</v>
+        <v>1.3561077143413331E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10235,8 +10235,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12105,17 +12105,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3006679877262365E-2</v>
+        <v>1.3561077143413331E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3006679877262365E-2</v>
+        <v>1.3561077143413331E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3006679877262365E-2</v>
+        <v>1.3561077143413331E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12226,14 +12226,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>42.843825456270423</v>
+        <v>43.100019488718843</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>42.843825456270423</v>
+        <v>43.100019488718843</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12301,21 +12301,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3586371.2085938235</v>
+        <v>3607816.7002603961</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.300953268038295</v>
+        <v>21.428326980693903</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.300953268038295</v>
+        <v>21.428326980693903</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>31.124488136607898</v>
+        <v>31.310603826294603</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12364,27 +12364,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3586371.2085938235</v>
+        <v>3607816.7002603961</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.10581027783255</v>
+        <v>18.214077933589817</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>21.300953268038295</v>
+        <v>21.428326980693903</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>21.300953268038295</v>
+        <v>21.428326980693903</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>21.300953268038295</v>
+        <v>21.428326980693903</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>31.124488136607898</v>
+        <v>31.310603826294603</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12486,27 +12486,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1793185.6042969117</v>
+        <v>1803908.3501301981</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>9.0529051389162749</v>
+        <v>9.1070389667949083</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>10.650476634019148</v>
+        <v>10.714163490346952</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>10.650476634019148</v>
+        <v>10.714163490346952</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>10.650476634019148</v>
+        <v>10.714163490346952</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>15.562244068303949</v>
+        <v>15.655301913147301</v>
       </c>
       <c r="K106" s="24"/>
     </row>
